--- a/data/PRODUCTIVITY-_1_.xlsx
+++ b/data/PRODUCTIVITY-_1_.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psing\Projects\gradernator\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00F7345-006B-4E7F-912D-14DB2EE38724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$A$1:$D$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>SHIFT_DATE</t>
   </si>
@@ -122,14 +130,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -140,28 +143,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -451,19 +463,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,399 +489,399 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>97.009750949999997</v>
+      </c>
+      <c r="D2">
+        <v>92334.528000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>93.247584140000001</v>
+      </c>
+      <c r="D3">
+        <v>71137.459199999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>102.20341550000001</v>
+      </c>
+      <c r="D4">
+        <v>92422.080000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>99.669179540000002</v>
+      </c>
+      <c r="D5">
+        <v>93928.703999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>99.311766750000004</v>
+      </c>
+      <c r="D6">
+        <v>78683.712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>89.743007270000007</v>
+      </c>
+      <c r="D7">
+        <v>93056.831999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>95.99268547</v>
-      </c>
-      <c r="D2">
-        <v>57475.68096</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>95.992685469999998</v>
+      </c>
+      <c r="D8">
+        <v>57475.680959999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>91.665535419999998</v>
+      </c>
+      <c r="D9">
+        <v>77819.135999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>98.642753060000004</v>
+      </c>
+      <c r="D10">
+        <v>80836.761599999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>101.12476650000001</v>
+      </c>
+      <c r="D11">
+        <v>84942.585600000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>103.90625129999999</v>
+      </c>
+      <c r="D12">
+        <v>109078.848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>101.2153182</v>
+      </c>
+      <c r="D13">
+        <v>68737.440000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>102.94208519999999</v>
+      </c>
+      <c r="D14">
+        <v>93894.047999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>92.425471040000005</v>
+      </c>
+      <c r="D15">
+        <v>-52797.504000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>102.6165919</v>
+      </c>
+      <c r="D16">
+        <v>87544.703999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>99.418797049999995</v>
+      </c>
+      <c r="D17">
+        <v>88712.063999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>104.339147</v>
       </c>
-      <c r="D3">
-        <v>74468.448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>103.9062513</v>
-      </c>
-      <c r="D4">
-        <v>109078.848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>99.31176675</v>
-      </c>
-      <c r="D5">
-        <v>78683.712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>102.2034155</v>
-      </c>
-      <c r="D6">
-        <v>92422.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>99.66917954</v>
-      </c>
-      <c r="D7">
-        <v>93928.704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>101.1247665</v>
-      </c>
-      <c r="D8">
-        <v>84942.5856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="D18">
+        <v>74468.448000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>99.499132669999995</v>
+      </c>
+      <c r="D19">
+        <v>69729.695999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>106.32360439999999</v>
+      </c>
+      <c r="D20">
+        <v>44981.663999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>109.54487039999999</v>
+      </c>
+      <c r="D21">
+        <v>108560.83199999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>108.15194510000001</v>
+      </c>
+      <c r="D22">
+        <v>48285.657599999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>105.9551367</v>
       </c>
-      <c r="D9">
-        <v>52903.296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="D23">
+        <v>52903.296000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>98.105611519999997</v>
+      </c>
+      <c r="D24">
+        <v>55038.816959999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>101.9333558</v>
       </c>
-      <c r="D10">
-        <v>76612.104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>93.24758414</v>
-      </c>
-      <c r="D11">
-        <v>71137.4592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>89.74300727</v>
-      </c>
-      <c r="D12">
-        <v>93056.832</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="D25">
+        <v>76612.104000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>98.370745490000004</v>
+      </c>
+      <c r="D26">
+        <v>93275.712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>105.9935855</v>
-      </c>
-      <c r="D13">
-        <v>83980.608</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>92.42547104</v>
-      </c>
-      <c r="D14">
-        <v>-52797.504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>102.9420852</v>
-      </c>
-      <c r="D15">
-        <v>93894.048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>105.99358549999999</v>
+      </c>
+      <c r="D27">
+        <v>83980.607999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>109.99847870000001</v>
+      </c>
+      <c r="D28">
+        <v>107497.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>107.9122872</v>
-      </c>
-      <c r="D16">
-        <v>74337.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>98.37074549</v>
-      </c>
-      <c r="D17">
-        <v>93275.712</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>99.41879705</v>
-      </c>
-      <c r="D18">
-        <v>88712.064</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>108.1519451</v>
-      </c>
-      <c r="D19">
-        <v>48285.6576</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>101.2153182</v>
-      </c>
-      <c r="D20">
-        <v>68737.44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>109.9984787</v>
-      </c>
-      <c r="D21">
-        <v>107497.44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>107.2267478</v>
-      </c>
-      <c r="D22">
-        <v>56082.528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>106.3236044</v>
-      </c>
-      <c r="D23">
-        <v>44981.664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>98.64275306</v>
-      </c>
-      <c r="D24">
-        <v>80836.7616</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>98.10561152</v>
-      </c>
-      <c r="D25">
-        <v>55038.81696</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>102.6165919</v>
-      </c>
-      <c r="D26">
-        <v>87544.704</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>99.49913267</v>
-      </c>
-      <c r="D27">
-        <v>69729.696</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>97.00975095</v>
-      </c>
-      <c r="D28">
-        <v>92334.528</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>91.66553542</v>
+        <v>107.91228719999999</v>
       </c>
       <c r="D29">
-        <v>77819.136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>74337.119999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -880,35 +892,30 @@
         <v>108.2635691</v>
       </c>
       <c r="D30">
-        <v>8142.336</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>8142.3360000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>109.5448704</v>
+        <v>107.2267478</v>
       </c>
       <c r="D31">
-        <v>108560.832</v>
+        <v>56082.527999999998</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:D1" xr:uid="{16C36111-CB19-4DEC-8B32-26D73878FF72}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>